--- a/Application/AccountReport (26 Sep 2016).xlsx
+++ b/Application/AccountReport (26 Sep 2016).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="122">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Driver</t>
+    <t>R.ID</t>
   </si>
   <si>
     <t>EFT</t>
@@ -47,223 +47,235 @@
     <t>Stay</t>
   </si>
   <si>
-    <t>Kitana</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>0765554433</t>
-  </si>
-  <si>
-    <t>Barry</t>
+    <t>Keanu</t>
+  </si>
+  <si>
+    <t>Arendze</t>
+  </si>
+  <si>
+    <t>0746446895</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Rossouw</t>
+  </si>
+  <si>
+    <t>Binedell</t>
+  </si>
+  <si>
+    <t>0234567890</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>0987654432</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>De Franko</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>Harison</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>0786653216</t>
   </si>
   <si>
     <t>Allen</t>
   </si>
   <si>
-    <t>0786665524</t>
-  </si>
-  <si>
-    <t>Keanu</t>
-  </si>
-  <si>
-    <t>Arendze</t>
-  </si>
-  <si>
-    <t>0746446895</t>
-  </si>
-  <si>
-    <t>Alison</t>
-  </si>
-  <si>
-    <t>Argent</t>
-  </si>
-  <si>
-    <t>0871113344</t>
-  </si>
-  <si>
-    <t>Rossouw</t>
-  </si>
-  <si>
-    <t>Binedell</t>
-  </si>
-  <si>
-    <t>9128730123</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Bourne</t>
-  </si>
-  <si>
-    <t>0213334445</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>Sheldon</t>
-  </si>
-  <si>
-    <t>Cooper</t>
-  </si>
-  <si>
-    <t>0219929922</t>
-  </si>
-  <si>
-    <t>Depp</t>
-  </si>
-  <si>
-    <t>0786665552</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>0244819105</t>
-  </si>
-  <si>
-    <t>Dick</t>
-  </si>
-  <si>
-    <t>Grayson</t>
-  </si>
-  <si>
-    <t>0788882211</t>
-  </si>
-  <si>
-    <t>Derek</t>
-  </si>
-  <si>
-    <t>Hale</t>
-  </si>
-  <si>
-    <t>0786665522</t>
-  </si>
-  <si>
-    <t>Janet</t>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>0615514638</t>
+  </si>
+  <si>
+    <t>0215514257</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>0859659658</t>
+  </si>
+  <si>
+    <t>Gates</t>
+  </si>
+  <si>
+    <t>0746449568</t>
+  </si>
+  <si>
+    <t>Selena</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>0364498572</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>Afro</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>0324487569</t>
   </si>
   <si>
     <t>Jackson</t>
   </si>
   <si>
-    <t>0654123579</t>
-  </si>
-  <si>
-    <t>asdasdasd</t>
-  </si>
-  <si>
-    <t>Samual L</t>
-  </si>
-  <si>
-    <t>0324759861</t>
+    <t>0989898987</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>0987878765</t>
   </si>
   <si>
     <t>James Earl</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>0356642579</t>
-  </si>
-  <si>
-    <t>dasdasdasdad</t>
-  </si>
-  <si>
-    <t>Kirigaya</t>
-  </si>
-  <si>
-    <t>Kazuto</t>
-  </si>
-  <si>
-    <t>1029367120</t>
-  </si>
-  <si>
-    <t>ask for Kazuto-san at gate</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>0782626191</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Kriel</t>
-  </si>
-  <si>
-    <t>1253469856</t>
-  </si>
-  <si>
-    <t>Carli</t>
-  </si>
-  <si>
-    <t>0215510527</t>
-  </si>
-  <si>
-    <t>Freddie</t>
-  </si>
-  <si>
-    <t>Kruger</t>
-  </si>
-  <si>
-    <t>0674442226</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Lavido</t>
-  </si>
-  <si>
-    <t>0712920002</t>
-  </si>
-  <si>
-    <t>Jared</t>
-  </si>
-  <si>
-    <t>Leto</t>
-  </si>
-  <si>
-    <t>0784563975</t>
-  </si>
-  <si>
-    <t>Please ring 7 times knock twice.</t>
-  </si>
-  <si>
-    <t>Lex</t>
-  </si>
-  <si>
-    <t>Luther</t>
-  </si>
-  <si>
-    <t>0219873338</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>0875674433</t>
+    <t>0642253486</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Kong</t>
+  </si>
+  <si>
+    <t>0876543767</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Lavine</t>
+  </si>
+  <si>
+    <t>0364478513</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Menace</t>
+  </si>
+  <si>
+    <t>0987656543</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>0978675621</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Neeson</t>
+  </si>
+  <si>
+    <t>0283746574</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>NightingGale</t>
+  </si>
+  <si>
+    <t>Astrix</t>
+  </si>
+  <si>
+    <t>Oblix</t>
+  </si>
+  <si>
+    <t>0876337283</t>
   </si>
   <si>
     <t>Rita</t>
@@ -272,103 +284,100 @@
     <t>Ora</t>
   </si>
   <si>
-    <t>0321476589</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>5465732125</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>0219886655</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Queen</t>
-  </si>
-  <si>
-    <t>0897776665</t>
-  </si>
-  <si>
-    <t>Julian</t>
-  </si>
-  <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>0785679888</t>
-  </si>
-  <si>
-    <t>Press 1</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>0784563344</t>
-  </si>
-  <si>
-    <t>Styles</t>
-  </si>
-  <si>
-    <t>Stilensky</t>
-  </si>
-  <si>
-    <t>0789996662</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>0876675544</t>
-  </si>
-  <si>
-    <t>Sydney</t>
+    <t>0356614528</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Possible</t>
+  </si>
+  <si>
+    <t>0783547463</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>0786543876</t>
+  </si>
+  <si>
+    <t>Lone</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>0832534637</t>
   </si>
   <si>
     <t>White</t>
   </si>
   <si>
-    <t>0214537788</t>
-  </si>
-  <si>
-    <t>Wesley</t>
-  </si>
-  <si>
-    <t>Witt</t>
-  </si>
-  <si>
-    <t>carli</t>
-  </si>
-  <si>
-    <t>kriel</t>
-  </si>
-  <si>
-    <t>0987654321</t>
-  </si>
-  <si>
-    <t>Rudolf</t>
-  </si>
-  <si>
-    <t>van Rensburg</t>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>0796857463</t>
+  </si>
+  <si>
+    <t>Sparrow</t>
+  </si>
+  <si>
+    <t>0635473563</t>
+  </si>
+  <si>
+    <t>Even</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>0989877654</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>TheGenarous</t>
+  </si>
+  <si>
+    <t>0647758942</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>0111112222</t>
+  </si>
+  <si>
+    <t>Darth</t>
+  </si>
+  <si>
+    <t>Vader</t>
+  </si>
+  <si>
+    <t>0788656465</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>0315524652</t>
+  </si>
+  <si>
+    <t>jackson</t>
+  </si>
+  <si>
+    <t>frost</t>
   </si>
 </sst>
 </file>
@@ -798,25 +807,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
@@ -842,6 +851,46 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1235,14 +1284,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="10.3125" customWidth="true"/>
-    <col min="4" max="4" width="1.875" customWidth="true"/>
+    <col min="3" max="3" width="12.1875" customWidth="true"/>
+    <col min="4" max="4" width="4.6875" customWidth="true"/>
     <col min="5" max="5" width="4.6875" customWidth="true"/>
     <col min="6" max="6" width="4.6875" customWidth="true"/>
     <col min="7" max="7" width="12.1875" customWidth="true"/>
     <col min="8" max="8" width="4.6875" customWidth="true"/>
-    <col min="1" max="1" width="27.40625" customWidth="true"/>
-    <col min="2" max="2" width="27.40625" customWidth="true"/>
+    <col min="1" max="1" width="21.40625" customWidth="true"/>
+    <col min="2" max="2" width="21.40625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1253,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="4">
         <v>1</v>
@@ -1262,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s" s="7">
         <v>1</v>
@@ -1331,7 +1380,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s" s="27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="28">
         <v>1</v>
@@ -1348,16 +1397,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s" s="34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s" s="35">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>1</v>
@@ -1374,16 +1423,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="40">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s" s="42">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s" s="43">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="44">
         <v>1</v>
@@ -1400,16 +1449,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s" s="49">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s" s="50">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s" s="51">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s" s="52">
         <v>1</v>
@@ -1426,16 +1475,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="56">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="57">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="58">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s" s="59">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s" s="60">
         <v>1</v>
@@ -1452,16 +1501,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="64">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s" s="65">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s" s="66">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s" s="67">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s" s="68">
         <v>1</v>
@@ -1478,16 +1527,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="72">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s" s="73">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s" s="74">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s" s="75">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s" s="76">
         <v>1</v>
@@ -1504,16 +1553,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="80">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s" s="81">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="82">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s" s="83">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s" s="84">
         <v>1</v>
@@ -1530,16 +1579,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="88">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s" s="89">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s" s="90">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s" s="91">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s" s="92">
         <v>1</v>
@@ -1556,16 +1605,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="96">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="97">
         <v>37</v>
       </c>
-      <c r="B13" t="s" s="97">
+      <c r="C13" t="s" s="98">
         <v>38</v>
       </c>
-      <c r="C13" t="s" s="98">
-        <v>39</v>
-      </c>
       <c r="D13" t="s" s="99">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s" s="100">
         <v>1</v>
@@ -1582,16 +1631,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="104">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s" s="105">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s" s="106">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s" s="107">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s" s="108">
         <v>1</v>
@@ -1608,16 +1657,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="112">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s" s="113">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="114">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s" s="115">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s" s="116">
         <v>1</v>
@@ -1634,16 +1683,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="120">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s" s="121">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="122">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s" s="123">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s" s="124">
         <v>1</v>
@@ -1660,16 +1709,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="128">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s" s="129">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="130">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s" s="131">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s" s="132">
         <v>1</v>
@@ -1686,16 +1735,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="136">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s" s="137">
         <v>47</v>
       </c>
       <c r="C18" t="s" s="138">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s" s="139">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s" s="140">
         <v>1</v>
@@ -1712,16 +1761,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="144">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="145">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="146">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s" s="147">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s" s="148">
         <v>1</v>
@@ -1738,16 +1787,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="152">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="153">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="154">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s" s="155">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s" s="156">
         <v>1</v>
@@ -1764,16 +1813,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="160">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="161">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="162">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s" s="163">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s" s="164">
         <v>1</v>
@@ -1790,16 +1839,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="168">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s" s="169">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s" s="170">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s" s="171">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s" s="172">
         <v>1</v>
@@ -1816,16 +1865,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="176">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s" s="177">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="178">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s" s="179">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s" s="180">
         <v>1</v>
@@ -1842,16 +1891,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="184">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s" s="185">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s" s="186">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D24" t="s" s="187">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s" s="188">
         <v>1</v>
@@ -1868,16 +1917,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="192">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s" s="193">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s" s="194">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s" s="195">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s" s="196">
         <v>1</v>
@@ -1894,16 +1943,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="200">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s" s="201">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s" s="202">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s" s="203">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s" s="204">
         <v>1</v>
@@ -1920,16 +1969,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="208">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s" s="209">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s" s="210">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s" s="211">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s" s="212">
         <v>1</v>
@@ -1946,16 +1995,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="216">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s" s="217">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s" s="218">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s" s="219">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E28" t="s" s="220">
         <v>1</v>
@@ -1972,16 +2021,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="224">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s" s="225">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s" s="226">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D29" t="s" s="227">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s" s="228">
         <v>1</v>
@@ -1998,16 +2047,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="232">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s" s="233">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s" s="234">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s" s="235">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s" s="236">
         <v>1</v>
@@ -2024,16 +2073,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="240">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s" s="241">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s" s="242">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s" s="243">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s" s="244">
         <v>1</v>
@@ -2050,16 +2099,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="248">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s" s="249">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s" s="250">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="251">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s" s="252">
         <v>1</v>
@@ -2076,16 +2125,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="256">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s" s="257">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="258">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s" s="259">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s" s="260">
         <v>1</v>
@@ -2102,16 +2151,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="264">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s" s="265">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s" s="266">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s" s="267">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s" s="268">
         <v>1</v>
@@ -2128,16 +2177,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="272">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="273">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s" s="274">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s" s="275">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s" s="276">
         <v>1</v>
@@ -2154,16 +2203,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="280">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s" s="281">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s" s="282">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s" s="283">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s" s="284">
         <v>1</v>
@@ -2180,16 +2229,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="288">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="289">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s" s="290">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D37" t="s" s="291">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s" s="292">
         <v>1</v>
@@ -2206,16 +2255,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="296">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s" s="297">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s" s="298">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s" s="299">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s" s="300">
         <v>1</v>
@@ -2232,16 +2281,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="304">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s" s="305">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s" s="306">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D39" t="s" s="307">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s" s="308">
         <v>1</v>
@@ -2258,16 +2307,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="312">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="313">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s" s="314">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D40" t="s" s="315">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s" s="316">
         <v>1</v>
@@ -2284,34 +2333,138 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="320">
+        <v>108</v>
+      </c>
+      <c r="B41" t="s" s="321">
+        <v>109</v>
+      </c>
+      <c r="C41" t="s" s="322">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s" s="323">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s" s="324">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s" s="327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="328">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s" s="329">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s" s="330">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s" s="331">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s" s="333">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s" s="334">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s" s="335">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="336">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s" s="337">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s" s="338">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s" s="339">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s" s="340">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s" s="343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="344">
         <v>117</v>
       </c>
-      <c r="B41" t="s" s="321">
+      <c r="B44" t="s" s="345">
         <v>118</v>
       </c>
-      <c r="C41" t="s" s="322">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s" s="323">
-        <v>12</v>
-      </c>
-      <c r="E41" t="s" s="324">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s" s="325">
-        <v>1</v>
-      </c>
-      <c r="G41" t="s" s="326">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s" s="327">
+      <c r="C44" t="s" s="346">
+        <v>119</v>
+      </c>
+      <c r="D44" t="s" s="347">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s" s="351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="352">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s" s="353">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s" s="354">
+        <v>102</v>
+      </c>
+      <c r="D45" t="s" s="355">
+        <v>25</v>
+      </c>
+      <c r="E45" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s" s="359">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/AccountReport (26 Sep 2016).xlsx
+++ b/Application/AccountReport (26 Sep 2016).xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AccountReport - Week 57" r:id="rId3" sheetId="1"/>
+    <sheet name="AccountReport - Week 8" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/Application/AccountReport (26 Sep 2016).xlsx
+++ b/Application/AccountReport (26 Sep 2016).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="121">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -20,7 +20,7 @@
     <t/>
   </si>
   <si>
-    <t>Week: 26 Sep 2016</t>
+    <t>Week: 8 (26 Sep 2016)</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,6 +59,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>0987654432</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Bugs</t>
   </si>
   <si>
@@ -161,6 +161,15 @@
     <t>0859659658</t>
   </si>
   <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>0796857463</t>
+  </si>
+  <si>
     <t>Gates</t>
   </si>
   <si>
@@ -191,9 +200,6 @@
     <t>0324487569</t>
   </si>
   <si>
-    <t>Jackson</t>
-  </si>
-  <si>
     <t>0989898987</t>
   </si>
   <si>
@@ -320,9 +326,6 @@
     <t>Shadow</t>
   </si>
   <si>
-    <t>0796857463</t>
-  </si>
-  <si>
     <t>Sparrow</t>
   </si>
   <si>
@@ -372,12 +375,6 @@
   </si>
   <si>
     <t>0315524652</t>
-  </si>
-  <si>
-    <t>jackson</t>
-  </si>
-  <si>
-    <t>frost</t>
   </si>
 </sst>
 </file>
@@ -807,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="368">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -851,6 +848,16 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1397,16 +1404,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="32">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="33">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="34">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="35">
         <v>15</v>
-      </c>
-      <c r="B5" t="s" s="33">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="34">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s" s="35">
-        <v>18</v>
       </c>
       <c r="E5" t="s" s="36">
         <v>1</v>
@@ -1423,16 +1430,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="40">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="41">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="43">
         <v>19</v>
-      </c>
-      <c r="B6" t="s" s="41">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="42">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s" s="43">
-        <v>14</v>
       </c>
       <c r="E6" t="s" s="44">
         <v>1</v>
@@ -1449,16 +1456,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="49">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="50">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="49">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="50">
-        <v>24</v>
-      </c>
       <c r="D7" t="s" s="51">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s" s="52">
         <v>1</v>
@@ -1475,16 +1482,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s" s="57">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s" s="58">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="59">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s" s="60">
         <v>1</v>
@@ -1501,16 +1508,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="64">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s" s="65">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="66">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s" s="67">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s" s="68">
         <v>1</v>
@@ -1527,16 +1534,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="72">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s" s="73">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s" s="74">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s" s="75">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s" s="76">
         <v>1</v>
@@ -1553,16 +1560,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="80">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s" s="81">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s" s="82">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s" s="83">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s" s="84">
         <v>1</v>
@@ -1579,16 +1586,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="88">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s" s="89">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="90">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="91">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s" s="92">
         <v>1</v>
@@ -1657,13 +1664,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="112">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s" s="113">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="114">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s" s="115">
         <v>14</v>
@@ -1683,16 +1690,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="120">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s" s="121">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="122">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s" s="123">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="124">
         <v>1</v>
@@ -1709,16 +1716,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="128">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s" s="129">
         <v>43</v>
       </c>
       <c r="C17" t="s" s="130">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s" s="131">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s" s="132">
         <v>1</v>
@@ -1735,16 +1742,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="136">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s" s="137">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s" s="138">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s" s="139">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="140">
         <v>1</v>
@@ -1761,16 +1768,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="144">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s" s="145">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s" s="146">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s" s="147">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s" s="148">
         <v>1</v>
@@ -1787,16 +1794,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="152">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s" s="153">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="154">
         <v>51</v>
       </c>
-      <c r="B20" t="s" s="153">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s" s="154">
-        <v>53</v>
-      </c>
       <c r="D20" t="s" s="155">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s" s="156">
         <v>1</v>
@@ -1813,16 +1820,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="160">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s" s="161">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="162">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s" s="163">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s" s="164">
         <v>1</v>
@@ -1839,16 +1846,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="168">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s" s="169">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s" s="170">
         <v>56</v>
       </c>
-      <c r="B22" t="s" s="169">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s" s="170">
-        <v>58</v>
-      </c>
       <c r="D22" t="s" s="171">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s" s="172">
         <v>1</v>
@@ -1865,16 +1872,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="176">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="177">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s" s="178">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s" s="179">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s" s="180">
         <v>1</v>
@@ -1891,16 +1898,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="184">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s" s="185">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s" s="186">
         <v>61</v>
       </c>
-      <c r="B24" t="s" s="185">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s" s="186">
-        <v>63</v>
-      </c>
       <c r="D24" t="s" s="187">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s" s="188">
         <v>1</v>
@@ -1917,16 +1924,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="192">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s" s="193">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s" s="194">
         <v>62</v>
       </c>
-      <c r="C25" t="s" s="194">
-        <v>65</v>
-      </c>
       <c r="D25" t="s" s="195">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s" s="196">
         <v>1</v>
@@ -1943,16 +1950,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="200">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s" s="201">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s" s="202">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s" s="203">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s" s="204">
         <v>1</v>
@@ -1969,13 +1976,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="208">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="209">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s" s="210">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s" s="211">
         <v>14</v>
@@ -1995,16 +2002,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="216">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s" s="217">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s" s="218">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s" s="219">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s" s="220">
         <v>1</v>
@@ -2021,16 +2028,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="224">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s" s="225">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s" s="226">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s" s="227">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s" s="228">
         <v>1</v>
@@ -2047,16 +2054,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="232">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s" s="233">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" t="s" s="234">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s" s="235">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s" s="236">
         <v>1</v>
@@ -2073,16 +2080,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="240">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s" s="241">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s" s="242">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s" s="243">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s" s="244">
         <v>1</v>
@@ -2099,13 +2106,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="248">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s" s="249">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s" s="250">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s" s="251">
         <v>14</v>
@@ -2125,16 +2132,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="256">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s" s="257">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C33" t="s" s="258">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s" s="259">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s" s="260">
         <v>1</v>
@@ -2151,16 +2158,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="264">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s" s="265">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s" s="266">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s" s="267">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s" s="268">
         <v>1</v>
@@ -2177,16 +2184,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="272">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s" s="273">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C35" t="s" s="274">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s" s="275">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s" s="276">
         <v>1</v>
@@ -2203,16 +2210,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="280">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s" s="281">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s" s="282">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s" s="283">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s" s="284">
         <v>1</v>
@@ -2229,16 +2236,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="288">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s" s="289">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s" s="290">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s" s="291">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s" s="292">
         <v>1</v>
@@ -2255,13 +2262,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="296">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s" s="297">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s" s="298">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s" s="299">
         <v>14</v>
@@ -2281,13 +2288,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="304">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s" s="305">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s" s="306">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s" s="307">
         <v>14</v>
@@ -2307,13 +2314,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="312">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s" s="313">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C40" t="s" s="314">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s" s="315">
         <v>14</v>
@@ -2333,16 +2340,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="320">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s" s="321">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s" s="322">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s" s="323">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s" s="324">
         <v>1</v>
@@ -2359,13 +2366,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="328">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B42" t="s" s="329">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C42" t="s" s="330">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s" s="331">
         <v>14</v>
@@ -2385,16 +2392,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="336">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="337">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s" s="338">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s" s="339">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s" s="340">
         <v>1</v>
@@ -2411,13 +2418,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="344">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s" s="345">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C44" t="s" s="346">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s" s="347">
         <v>14</v>
@@ -2437,27 +2444,53 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="352">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s" s="353">
+        <v>116</v>
+      </c>
+      <c r="C45" t="s" s="354">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s" s="355">
+        <v>15</v>
+      </c>
+      <c r="E45" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s" s="358">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s" s="359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="360">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s" s="361">
+        <v>119</v>
+      </c>
+      <c r="C46" t="s" s="362">
         <v>120</v>
       </c>
-      <c r="B45" t="s" s="353">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s" s="354">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s" s="355">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s" s="359">
+      <c r="D46" t="s" s="363">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="364">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s" s="365">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s" s="366">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s" s="367">
         <v>1</v>
       </c>
     </row>

--- a/Application/AccountReport (26 Sep 2016).xlsx
+++ b/Application/AccountReport (26 Sep 2016).xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="116">
   <si>
     <t>Doorstep Chef Accountant Sheet</t>
   </si>
@@ -56,111 +56,93 @@
     <t>0746446895</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bay</t>
+  </si>
+  <si>
+    <t>0645554478</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Rossouw</t>
+  </si>
+  <si>
+    <t>Binedell</t>
+  </si>
+  <si>
+    <t>0234567890</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Bay</t>
-  </si>
-  <si>
-    <t>0645554478</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Rossouw</t>
-  </si>
-  <si>
-    <t>Binedell</t>
-  </si>
-  <si>
-    <t>0234567890</t>
+    <t>Bugs</t>
+  </si>
+  <si>
+    <t>Bunny</t>
+  </si>
+  <si>
+    <t>0797979797</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>0283744444</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Cosby</t>
+  </si>
+  <si>
+    <t>0346969874</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>DiCaprio</t>
+  </si>
+  <si>
+    <t>0314569832</t>
+  </si>
+  <si>
+    <t>Harison</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>0786653216</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>0615514638</t>
   </si>
   <si>
     <t>James</t>
   </si>
   <si>
-    <t>Bond</t>
-  </si>
-  <si>
-    <t>0987654432</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Bugs</t>
-  </si>
-  <si>
-    <t>Bunny</t>
-  </si>
-  <si>
-    <t>0797979797</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Clyde</t>
-  </si>
-  <si>
-    <t>0283744444</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Cosby</t>
-  </si>
-  <si>
-    <t>0346969874</t>
-  </si>
-  <si>
-    <t>De Franko</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>DiCaprio</t>
-  </si>
-  <si>
-    <t>0314569832</t>
-  </si>
-  <si>
-    <t>Harison</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>0786653216</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>0615514638</t>
-  </si>
-  <si>
     <t>0215514257</t>
   </si>
   <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>0859659658</t>
-  </si>
-  <si>
     <t>Gates</t>
   </si>
   <si>
@@ -314,6 +296,12 @@
     <t>0832534637</t>
   </si>
   <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Rogen</t>
+  </si>
+  <si>
     <t>White</t>
   </si>
   <si>
@@ -372,12 +360,6 @@
   </si>
   <si>
     <t>0315524652</t>
-  </si>
-  <si>
-    <t>jackson</t>
-  </si>
-  <si>
-    <t>frost</t>
   </si>
 </sst>
 </file>
@@ -807,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -851,46 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
@@ -1432,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="D6" t="s" s="43">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s" s="44">
         <v>1</v>
@@ -1449,16 +1391,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="48">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s" s="49">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s" s="50">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="51">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s" s="52">
         <v>1</v>
@@ -1484,7 +1426,7 @@
         <v>28</v>
       </c>
       <c r="D8" t="s" s="59">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s" s="60">
         <v>1</v>
@@ -1510,7 +1452,7 @@
         <v>31</v>
       </c>
       <c r="D9" t="s" s="67">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s" s="68">
         <v>1</v>
@@ -1536,7 +1478,7 @@
         <v>34</v>
       </c>
       <c r="D10" t="s" s="75">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s" s="76">
         <v>1</v>
@@ -1553,16 +1495,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="80">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s" s="81">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s" s="82">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s" s="83">
         <v>22</v>
-      </c>
-      <c r="B11" t="s" s="81">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="82">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s" s="83">
-        <v>18</v>
       </c>
       <c r="E11" t="s" s="84">
         <v>1</v>
@@ -1579,16 +1521,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="88">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s" s="89">
         <v>36</v>
       </c>
-      <c r="B12" t="s" s="89">
+      <c r="C12" t="s" s="90">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="90">
-        <v>38</v>
-      </c>
       <c r="D12" t="s" s="91">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s" s="92">
         <v>1</v>
@@ -1605,13 +1547,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="96">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s" s="97">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s" s="98">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="99">
         <v>14</v>
@@ -1631,16 +1573,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="104">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s" s="105">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s" s="106">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s" s="107">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s" s="108">
         <v>1</v>
@@ -1657,13 +1599,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="112">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s" s="113">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="114">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s" s="115">
         <v>14</v>
@@ -1683,16 +1625,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="120">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="121">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="122">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s" s="123">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s" s="124">
         <v>1</v>
@@ -1709,16 +1651,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="128">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="129">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="130">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="131">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s" s="132">
         <v>1</v>
@@ -1735,16 +1677,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="136">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s" s="137">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s" s="138">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s" s="139">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s" s="140">
         <v>1</v>
@@ -1761,16 +1703,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="144">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s" s="145">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s" s="146">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s" s="147">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s" s="148">
         <v>1</v>
@@ -1787,16 +1729,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="152">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s" s="153">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s" s="154">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s" s="155">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s" s="156">
         <v>1</v>
@@ -1813,16 +1755,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="160">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="161">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s" s="162">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s" s="163">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E21" t="s" s="164">
         <v>1</v>
@@ -1839,16 +1781,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="168">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s" s="169">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s" s="170">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s" s="171">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s" s="172">
         <v>1</v>
@@ -1865,16 +1807,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="176">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s" s="177">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="178">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s" s="179">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" t="s" s="180">
         <v>1</v>
@@ -1891,16 +1833,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="184">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s" s="185">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s" s="186">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s" s="187">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s" s="188">
         <v>1</v>
@@ -1917,13 +1859,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="192">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s" s="193">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s" s="194">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s" s="195">
         <v>14</v>
@@ -1943,16 +1885,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="200">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s" s="201">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="202">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s" s="203">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s" s="204">
         <v>1</v>
@@ -1969,13 +1911,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="208">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s" s="209">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s" s="210">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s" s="211">
         <v>14</v>
@@ -1995,16 +1937,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="216">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s" s="217">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s" s="218">
         <v>13</v>
       </c>
       <c r="D28" t="s" s="219">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E28" t="s" s="220">
         <v>1</v>
@@ -2021,16 +1963,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="224">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s" s="225">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s" s="226">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s" s="227">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s" s="228">
         <v>1</v>
@@ -2047,16 +1989,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="232">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s" s="233">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s" s="234">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s" s="235">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s" s="236">
         <v>1</v>
@@ -2073,16 +2015,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="240">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="241">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s" s="242">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s" s="243">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E31" t="s" s="244">
         <v>1</v>
@@ -2099,16 +2041,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="248">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s" s="249">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s" s="250">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s" s="251">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s" s="252">
         <v>1</v>
@@ -2125,16 +2067,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="256">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="257">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s" s="258">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s" s="259">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s" s="260">
         <v>1</v>
@@ -2151,16 +2093,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="264">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s" s="265">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s" s="266">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s" s="267">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s" s="268">
         <v>1</v>
@@ -2177,16 +2119,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="272">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s" s="273">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s" s="274">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s" s="275">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s" s="276">
         <v>1</v>
@@ -2203,16 +2145,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="280">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s" s="281">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s" s="282">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s" s="283">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s" s="284">
         <v>1</v>
@@ -2229,16 +2171,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="288">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s" s="289">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s" s="290">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s" s="291">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s" s="292">
         <v>1</v>
@@ -2255,16 +2197,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="296">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s" s="297">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s" s="298">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s" s="299">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s" s="300">
         <v>1</v>
@@ -2281,16 +2223,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="304">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B39" t="s" s="305">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s" s="306">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D39" t="s" s="307">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E39" t="s" s="308">
         <v>1</v>
@@ -2307,13 +2249,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="312">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s" s="313">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C40" t="s" s="314">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s" s="315">
         <v>14</v>
@@ -2333,16 +2275,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="320">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s" s="321">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s" s="322">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s" s="323">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E41" t="s" s="324">
         <v>1</v>
@@ -2354,110 +2296,6 @@
         <v>1</v>
       </c>
       <c r="H41" t="s" s="327">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="328">
-        <v>111</v>
-      </c>
-      <c r="B42" t="s" s="329">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s" s="330">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s" s="331">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="332">
-        <v>1</v>
-      </c>
-      <c r="F42" t="s" s="333">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s" s="335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="336">
-        <v>114</v>
-      </c>
-      <c r="B43" t="s" s="337">
-        <v>115</v>
-      </c>
-      <c r="C43" t="s" s="338">
-        <v>116</v>
-      </c>
-      <c r="D43" t="s" s="339">
-        <v>25</v>
-      </c>
-      <c r="E43" t="s" s="340">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s" s="341">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s" s="342">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s" s="343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="344">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s" s="345">
-        <v>118</v>
-      </c>
-      <c r="C44" t="s" s="346">
-        <v>119</v>
-      </c>
-      <c r="D44" t="s" s="347">
-        <v>14</v>
-      </c>
-      <c r="E44" t="s" s="348">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s" s="349">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s" s="350">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s" s="351">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="352">
-        <v>120</v>
-      </c>
-      <c r="B45" t="s" s="353">
-        <v>121</v>
-      </c>
-      <c r="C45" t="s" s="354">
-        <v>102</v>
-      </c>
-      <c r="D45" t="s" s="355">
-        <v>25</v>
-      </c>
-      <c r="E45" t="s" s="356">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s" s="357">
-        <v>1</v>
-      </c>
-      <c r="G45" t="s" s="358">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s" s="359">
         <v>1</v>
       </c>
     </row>
